--- a/test/fixture/snapshot/cli/sort-format/collection-high-value/predh/high-value/predh-high-value-mythic.xlsx
+++ b/test/fixture/snapshot/cli/sort-format/collection-high-value/predh/high-value/predh-high-value-mythic.xlsx
@@ -85,6 +85,30 @@
     <comment ref="D3" authorId="0">
       <text>
         <r>
+          <t xml:space="preserve">P/T: 2/2
+Border: black
+Finish: normal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <t>{T}: Target artifact creature's controller sacrifices it. That player may search their library for a noncreature artifact card, put it onto the battlefield, then shuffle.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="0">
+      <text>
+        <r>
+          <t xml:space="preserve">➤ 3 generic
+➤ 1 blue</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0">
+      <text>
+        <r>
           <t xml:space="preserve">P/T: 4/6
 Game Changer
 Border: black
@@ -94,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="E4" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">Flying
@@ -102,35 +126,11 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0">
+    <comment ref="I4" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">➤ 4 generic
 ➤ 2 blue</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D4" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">P/T: 2/2
-Border: black
-Finish: normal</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E4" authorId="0">
-      <text>
-        <r>
-          <t>{T}: Target artifact creature's controller sacrifices it. That player may search their library for a noncreature artifact card, put it onto the battlefield, then shuffle.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I4" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">➤ 3 generic
-➤ 1 blue</t>
         </r>
       </text>
     </comment>
@@ -323,32 +323,6 @@
     <comment ref="D3" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">Game Changer
-Border: black
-Finish: normal
-Keywords:
-➤ Imprint</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E3" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">Imprint — When this artifact enters, you may exile a nonartifact, nonland card from your hand.
-{T}: Add one mana of any of the exiled card's colors.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I3" authorId="0">
-      <text>
-        <r>
-          <t>➤ 0 generic</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D4" authorId="0">
-      <text>
-        <r>
           <t xml:space="preserve">P/T: 11/11
 Border: black
 Finish: normal
@@ -359,7 +333,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0">
+    <comment ref="E3" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">Trample, infect, indestructible
@@ -367,10 +341,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="I3" authorId="0">
+      <text>
+        <r>
+          <t>➤ 12 generic</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0">
+      <text>
+        <r>
+          <t xml:space="preserve">Game Changer
+Border: black
+Finish: normal
+Keywords:
+➤ Imprint</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0">
+      <text>
+        <r>
+          <t xml:space="preserve">Imprint — When this artifact enters, you may exile a nonartifact, nonland card from your hand.
+{T}: Add one mana of any of the exiled card's colors.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="I4" authorId="0">
       <text>
         <r>
-          <t>➤ 12 generic</t>
+          <t>➤ 0 generic</t>
         </r>
       </text>
     </comment>
@@ -486,6 +486,33 @@
     <t>Predh - High Value (Mythic) - Blue</t>
   </si>
   <si>
+    <t>Arcum Dagsson</t>
+  </si>
+  <si>
+    <t>Legendary Creature — Human Artificer</t>
+  </si>
+  <si>
+    <t>2xm</t>
+  </si>
+  <si>
+    <t>Double Masters</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>{3}{U}</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>14.18</t>
+  </si>
+  <si>
+    <t>Open Arcum Dagsson</t>
+  </si>
+  <si>
     <t>Consecrated Sphinx ◇</t>
   </si>
   <si>
@@ -507,37 +534,10 @@
     <t>{4}{U}{U}</t>
   </si>
   <si>
-    <t>U</t>
-  </si>
-  <si>
     <t>30.63</t>
   </si>
   <si>
     <t>Open Consecrated Sphinx</t>
-  </si>
-  <si>
-    <t>Arcum Dagsson</t>
-  </si>
-  <si>
-    <t>Legendary Creature — Human Artificer</t>
-  </si>
-  <si>
-    <t>2xm</t>
-  </si>
-  <si>
-    <t>Double Masters</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>{3}{U}</t>
-  </si>
-  <si>
-    <t>14.18</t>
-  </si>
-  <si>
-    <t>Open Arcum Dagsson</t>
   </si>
   <si>
     <t>Force of Will</t>
@@ -672,27 +672,6 @@
     <t>Predh - High Value (Mythic) - Artifact (Colorless)</t>
   </si>
   <si>
-    <t>Chrome Mox</t>
-  </si>
-  <si>
-    <t>Artifact</t>
-  </si>
-  <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>{0}</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>120.18</t>
-  </si>
-  <si>
-    <t>Open Chrome Mox</t>
-  </si>
-  <si>
     <t>Blightsteel Colossus</t>
   </si>
   <si>
@@ -708,10 +687,31 @@
     <t>{12}</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>34.25</t>
   </si>
   <si>
     <t>Open Blightsteel Colossus</t>
+  </si>
+  <si>
+    <t>Chrome Mox</t>
+  </si>
+  <si>
+    <t>Artifact</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>{0}</t>
+  </si>
+  <si>
+    <t>120.18</t>
+  </si>
+  <si>
+    <t>Open Chrome Mox</t>
   </si>
 </sst>
 </file>
@@ -763,7 +763,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -795,39 +795,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFD6C6FF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF777777"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFD6C6FF"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -846,34 +818,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4705,42 +4659,42 @@
         <v>16</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="7">
+        <v>4</v>
+      </c>
+      <c r="K3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="7">
-        <v>6</v>
-      </c>
-      <c r="K3" s="7" t="s">
+      <c r="L3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="M3" s="7" t="s">
+      <c r="N3" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="11">
         <v>1</v>
@@ -4749,7 +4703,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>46</v>
@@ -4767,13 +4721,13 @@
         <v>50</v>
       </c>
       <c r="J4" s="11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M4" s="11" t="s">
         <v>51</v>
@@ -4783,134 +4737,134 @@
       </c>
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="7">
         <v>5</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="7">
         <v>5</v>
       </c>
-      <c r="K5" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" s="13" t="s">
+      <c r="K5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="N5" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="11">
         <v>1</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="11">
         <v>5</v>
       </c>
-      <c r="K6" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="M6" s="15" t="s">
+      <c r="K6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="N6" s="15" t="s">
+      <c r="N6" s="11" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="13">
         <v>1</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="17" t="s">
+      <c r="F7" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="13">
         <v>5</v>
       </c>
-      <c r="K7" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="L7" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="M7" s="17" t="s">
+      <c r="K7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="N7" s="17" t="s">
+      <c r="N7" s="13" t="s">
         <v>70</v>
       </c>
     </row>
@@ -8228,7 +8182,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>73</v>
@@ -8278,10 +8232,10 @@
         <v>82</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>83</v>
@@ -11604,46 +11558,46 @@
       </c>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="13">
         <v>1</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="J3" s="19">
+      <c r="J3" s="13">
         <v>5</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="N3" s="13" t="s">
         <v>95</v>
       </c>
     </row>
@@ -14960,39 +14914,39 @@
         <v>98</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J3" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B4" s="9">
         <v>1</v>
@@ -15001,16 +14955,16 @@
         <v>16</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>106</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>107</v>
@@ -15019,13 +14973,13 @@
         <v>108</v>
       </c>
       <c r="J4" s="9">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M4" s="9" t="s">
         <v>109</v>
